--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>41.45944490826978</v>
+        <v>242.3964759556011</v>
       </c>
       <c r="R2">
-        <v>373.135004174428</v>
+        <v>2181.56828360041</v>
       </c>
       <c r="S2">
-        <v>0.003031660599054286</v>
+        <v>0.01013749683966232</v>
       </c>
       <c r="T2">
-        <v>0.003031660599054286</v>
+        <v>0.01013749683966232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>48.91145224806044</v>
+        <v>81.30671578339111</v>
       </c>
       <c r="R3">
-        <v>440.2030702325441</v>
+        <v>731.7604420505201</v>
       </c>
       <c r="S3">
-        <v>0.003576577615813484</v>
+        <v>0.003400406590269175</v>
       </c>
       <c r="T3">
-        <v>0.003576577615813484</v>
+        <v>0.003400406590269175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>6.260353545446667</v>
+        <v>13.93888673155611</v>
       </c>
       <c r="R4">
-        <v>56.34318190902</v>
+        <v>125.449980584005</v>
       </c>
       <c r="S4">
-        <v>0.0004577790952549568</v>
+        <v>0.0005829516276278022</v>
       </c>
       <c r="T4">
-        <v>0.0004577790952549568</v>
+        <v>0.0005829516276278022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>5.19325225589689</v>
+        <v>4.399597034389999</v>
       </c>
       <c r="R5">
-        <v>46.739270303072</v>
+        <v>39.59637330951</v>
       </c>
       <c r="S5">
-        <v>0.0003797488914766426</v>
+        <v>0.0001839997914824707</v>
       </c>
       <c r="T5">
-        <v>0.0003797488914766426</v>
+        <v>0.0001839997914824707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>223.7503680172347</v>
+        <v>266.5857392945105</v>
       </c>
       <c r="R6">
-        <v>2013.753312155112</v>
+        <v>2399.271653650595</v>
       </c>
       <c r="S6">
-        <v>0.01636141478118153</v>
+        <v>0.01114913935502987</v>
       </c>
       <c r="T6">
-        <v>0.01636141478118153</v>
+        <v>0.01114913935502987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>9.324423103648446</v>
+        <v>6.320244283042778</v>
       </c>
       <c r="R7">
-        <v>83.91980793283601</v>
+        <v>56.882198547385</v>
       </c>
       <c r="S7">
-        <v>0.0006818346505793145</v>
+        <v>0.0002643250327491384</v>
       </c>
       <c r="T7">
-        <v>0.0006818346505793146</v>
+        <v>0.0002643250327491384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>1109.541683532547</v>
+        <v>3902.389189441913</v>
       </c>
       <c r="R8">
-        <v>9985.875151792929</v>
+        <v>35121.50270497722</v>
       </c>
       <c r="S8">
-        <v>0.08113359482782236</v>
+        <v>0.1632055825858868</v>
       </c>
       <c r="T8">
-        <v>0.08113359482782237</v>
+        <v>0.1632055825858869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>1308.973026325055</v>
@@ -1013,10 +1013,10 @@
         <v>11780.7572369255</v>
       </c>
       <c r="S9">
-        <v>0.0957167168522066</v>
+        <v>0.05474382358596678</v>
       </c>
       <c r="T9">
-        <v>0.0957167168522066</v>
+        <v>0.05474382358596679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>167.5401884345617</v>
+        <v>224.4049162828721</v>
       </c>
       <c r="R10">
-        <v>1507.861695911055</v>
+        <v>2019.644246545849</v>
       </c>
       <c r="S10">
-        <v>0.01225112852231837</v>
+        <v>0.009385054467701869</v>
       </c>
       <c r="T10">
-        <v>0.01225112852231837</v>
+        <v>0.009385054467701871</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>138.9823202834942</v>
+        <v>70.82998973982198</v>
       </c>
       <c r="R11">
-        <v>1250.840882551448</v>
+        <v>637.469907658398</v>
       </c>
       <c r="S11">
-        <v>0.01016287664489613</v>
+        <v>0.002962249324417903</v>
       </c>
       <c r="T11">
-        <v>0.01016287664489613</v>
+        <v>0.002962249324417903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>5988.029038260228</v>
+        <v>4291.816962193914</v>
       </c>
       <c r="R12">
-        <v>53892.26134434206</v>
+        <v>38626.35265974523</v>
       </c>
       <c r="S12">
-        <v>0.4378657683780375</v>
+        <v>0.17949221711713</v>
       </c>
       <c r="T12">
-        <v>0.4378657683780375</v>
+        <v>0.17949221711713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>249.5411149686721</v>
+        <v>101.7508726871748</v>
       </c>
       <c r="R13">
-        <v>2245.870034718049</v>
+        <v>915.757854184573</v>
       </c>
       <c r="S13">
-        <v>0.01824732501287535</v>
+        <v>0.004255421396836039</v>
       </c>
       <c r="T13">
-        <v>0.01824732501287535</v>
+        <v>0.004255421396836039</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>238.8459758424709</v>
+        <v>3106.760649835722</v>
       </c>
       <c r="R14">
-        <v>2149.613782582238</v>
+        <v>27960.8458485215</v>
       </c>
       <c r="S14">
-        <v>0.01746525878014968</v>
+        <v>0.1299308339576095</v>
       </c>
       <c r="T14">
-        <v>0.01746525878014968</v>
+        <v>0.1299308339576095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>281.7766510841582</v>
+        <v>1042.09644206826</v>
       </c>
       <c r="R15">
-        <v>2535.989859757424</v>
+        <v>9378.867978614344</v>
       </c>
       <c r="S15">
-        <v>0.02060450092169263</v>
+        <v>0.04358252052321648</v>
       </c>
       <c r="T15">
-        <v>0.02060450092169263</v>
+        <v>0.04358252052321648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>36.06561194896334</v>
+        <v>178.6526995881234</v>
       </c>
       <c r="R16">
-        <v>324.59050754067</v>
+        <v>1607.874296293111</v>
       </c>
       <c r="S16">
-        <v>0.002637244540257802</v>
+        <v>0.007471606880140758</v>
       </c>
       <c r="T16">
-        <v>0.002637244540257802</v>
+        <v>0.007471606880140758</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>29.91808996961245</v>
+        <v>56.38900024305799</v>
       </c>
       <c r="R17">
-        <v>269.262809726512</v>
+        <v>507.501002187522</v>
       </c>
       <c r="S17">
-        <v>0.00218771608641927</v>
+        <v>0.002358298772711629</v>
       </c>
       <c r="T17">
-        <v>0.00218771608641927</v>
+        <v>0.002358298772711629</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>1289.015690210761</v>
+        <v>3416.790947073223</v>
       </c>
       <c r="R18">
-        <v>11601.14121189685</v>
+        <v>30751.11852365901</v>
       </c>
       <c r="S18">
-        <v>0.09425736616158223</v>
+        <v>0.1428969100775462</v>
       </c>
       <c r="T18">
-        <v>0.09425736616158223</v>
+        <v>0.1428969100775462</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>53.71757726825623</v>
+        <v>81.00565884259412</v>
       </c>
       <c r="R19">
-        <v>483.4581954143061</v>
+        <v>729.0509295833469</v>
       </c>
       <c r="S19">
-        <v>0.003928018400659838</v>
+        <v>0.003387815797544751</v>
       </c>
       <c r="T19">
-        <v>0.003928018400659839</v>
+        <v>0.00338781579754475</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>117.860304295054</v>
+        <v>121.489021287584</v>
       </c>
       <c r="R20">
-        <v>1060.742738655486</v>
+        <v>1093.401191588256</v>
       </c>
       <c r="S20">
-        <v>0.00861836046079314</v>
+        <v>0.00508090954912289</v>
       </c>
       <c r="T20">
-        <v>0.008618360460793143</v>
+        <v>0.005080909549122891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>139.044761892592</v>
+        <v>40.75089493644799</v>
       </c>
       <c r="R21">
-        <v>1251.402857033328</v>
+        <v>366.758054428032</v>
       </c>
       <c r="S21">
-        <v>0.0101674425952233</v>
+        <v>0.001704282485968653</v>
       </c>
       <c r="T21">
-        <v>0.0101674425952233</v>
+        <v>0.001704282485968653</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>17.79684160011</v>
+        <v>6.986164712911999</v>
       </c>
       <c r="R22">
-        <v>160.17157440099</v>
+        <v>62.87548241620799</v>
       </c>
       <c r="S22">
-        <v>0.001301367724195017</v>
+        <v>0.0002921751334020139</v>
       </c>
       <c r="T22">
-        <v>0.001301367724195017</v>
+        <v>0.0002921751334020139</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>14.763301643696</v>
+        <v>2.205076355424</v>
       </c>
       <c r="R23">
-        <v>132.869714793264</v>
+        <v>19.845687198816</v>
       </c>
       <c r="S23">
-        <v>0.001079544600854483</v>
+        <v>9.222062530488023E-05</v>
       </c>
       <c r="T23">
-        <v>0.001079544600854483</v>
+        <v>9.222062530488024E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>636.074277380916</v>
+        <v>133.612670846128</v>
       </c>
       <c r="R24">
-        <v>5724.668496428244</v>
+        <v>1202.514037615152</v>
       </c>
       <c r="S24">
-        <v>0.04651199091242549</v>
+        <v>0.005587944391937293</v>
       </c>
       <c r="T24">
-        <v>0.0465119909124255</v>
+        <v>0.005587944391937293</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>26.507333776498</v>
+        <v>3.167704023824</v>
       </c>
       <c r="R25">
-        <v>238.566003988482</v>
+        <v>28.509336214416</v>
       </c>
       <c r="S25">
-        <v>0.001938309583594073</v>
+        <v>0.0001324796055879268</v>
       </c>
       <c r="T25">
-        <v>0.001938309583594074</v>
+        <v>0.0001324796055879268</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>96.70705374992878</v>
+        <v>328.3583406270388</v>
       </c>
       <c r="R26">
-        <v>870.3634837493591</v>
+        <v>2955.22506564335</v>
       </c>
       <c r="S26">
-        <v>0.00707156029592195</v>
+        <v>0.01373259090199431</v>
       </c>
       <c r="T26">
-        <v>0.007071560295921951</v>
+        <v>0.01373259090199431</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>114.0893818526924</v>
+        <v>110.1407855506889</v>
       </c>
       <c r="R27">
-        <v>1026.804436674232</v>
+        <v>991.2670699562</v>
       </c>
       <c r="S27">
-        <v>0.008342617333602436</v>
+        <v>0.004606304035717699</v>
       </c>
       <c r="T27">
-        <v>0.008342617333602436</v>
+        <v>0.0046063040357177</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>14.60271231688167</v>
+        <v>18.88208027496389</v>
       </c>
       <c r="R28">
-        <v>131.424410851935</v>
+        <v>169.938722474675</v>
       </c>
       <c r="S28">
-        <v>0.001067801743809271</v>
+        <v>0.0007896856930740105</v>
       </c>
       <c r="T28">
-        <v>0.001067801743809271</v>
+        <v>0.0007896856930740108</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>12.11362395611289</v>
+        <v>5.959840694649999</v>
       </c>
       <c r="R29">
-        <v>109.022615605016</v>
+        <v>53.63856625184999</v>
       </c>
       <c r="S29">
-        <v>0.0008857908382700572</v>
+        <v>0.0002492522466290796</v>
       </c>
       <c r="T29">
-        <v>0.0008857908382700572</v>
+        <v>0.0002492522466290796</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>521.9133761748207</v>
+        <v>361.1259224973693</v>
       </c>
       <c r="R30">
-        <v>4697.220385573386</v>
+        <v>3250.133302476325</v>
       </c>
       <c r="S30">
-        <v>0.03816414383186766</v>
+        <v>0.01510299555141956</v>
       </c>
       <c r="T30">
-        <v>0.03816414383186766</v>
+        <v>0.01510299555141956</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>21.74986877578144</v>
+        <v>8.561613434997222</v>
       </c>
       <c r="R31">
-        <v>195.748818982033</v>
+        <v>77.05452091497499</v>
       </c>
       <c r="S31">
-        <v>0.001590426990714128</v>
+        <v>0.0003580634941062114</v>
       </c>
       <c r="T31">
-        <v>0.001590426990714128</v>
+        <v>0.0003580634941062114</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>88.56681258224711</v>
+        <v>1723.657537262894</v>
       </c>
       <c r="R32">
-        <v>797.101313240224</v>
+        <v>15512.91783536605</v>
       </c>
       <c r="S32">
-        <v>0.006476317198252361</v>
+        <v>0.07208674452785073</v>
       </c>
       <c r="T32">
-        <v>0.006476317198252362</v>
+        <v>0.07208674452785073</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>104.4859967123058</v>
+        <v>578.1640716418825</v>
       </c>
       <c r="R33">
-        <v>940.373970410752</v>
+        <v>5203.476644776943</v>
       </c>
       <c r="S33">
-        <v>0.007640383996613247</v>
+        <v>0.02417995734455086</v>
       </c>
       <c r="T33">
-        <v>0.007640383996613247</v>
+        <v>0.02417995734455087</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>13.37354034490667</v>
+        <v>99.11805475382064</v>
       </c>
       <c r="R34">
-        <v>120.36186310416</v>
+        <v>892.0624927843859</v>
       </c>
       <c r="S34">
-        <v>0.0009779203610473138</v>
+        <v>0.004145311778395577</v>
       </c>
       <c r="T34">
-        <v>0.0009779203610473138</v>
+        <v>0.004145311778395578</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>11.09396906441956</v>
+        <v>31.28510247250799</v>
       </c>
       <c r="R35">
-        <v>99.84572157977601</v>
+        <v>281.565922252572</v>
       </c>
       <c r="S35">
-        <v>0.0008112300821716792</v>
+        <v>0.001308404448510437</v>
       </c>
       <c r="T35">
-        <v>0.0008112300821716792</v>
+        <v>0.001308404448510437</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>477.9817229400106</v>
+        <v>1895.665013487859</v>
       </c>
       <c r="R36">
-        <v>4301.835506460096</v>
+        <v>17060.98512139073</v>
       </c>
       <c r="S36">
-        <v>0.03495170665481508</v>
+        <v>0.07928043511165386</v>
       </c>
       <c r="T36">
-        <v>0.03495170665481508</v>
+        <v>0.07928043511165386</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>19.91909045780978</v>
+        <v>44.94263645072466</v>
       </c>
       <c r="R37">
-        <v>179.271814120288</v>
+        <v>404.483728056522</v>
       </c>
       <c r="S37">
-        <v>0.001456554033551344</v>
+        <v>0.001879589351244387</v>
       </c>
       <c r="T37">
-        <v>0.001456554033551344</v>
+        <v>0.001879589351244387</v>
       </c>
     </row>
   </sheetData>
